--- a/Test_Register.xlsx
+++ b/Test_Register.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RecruitCRM\SDET Intern 2024 Assignments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RecruitCRM\SDET Intern Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E39EF53-F3D1-4D69-939E-7268C95C7778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A718ED5-8600-40D2-BF1B-8671FEE04657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
   <si>
     <t xml:space="preserve">Project Name: </t>
   </si>
@@ -110,19 +110,10 @@
     <t>TC_REG_009</t>
   </si>
   <si>
-    <t>TC_REG_010</t>
-  </si>
-  <si>
     <t>Registration</t>
   </si>
   <si>
     <t>Verify Application Language Selection</t>
-  </si>
-  <si>
-    <t>Select Different Languages from the Select your Application Language Drop Down Menu</t>
-  </si>
-  <si>
-    <t>1. Field should be Visible 2. Field Should be Clickable.</t>
   </si>
   <si>
     <t>1. Click on 'Select your Application Language Drop Down Menu'</t>
@@ -131,216 +122,19 @@
     <t>2. Select a Language.</t>
   </si>
   <si>
-    <t>1. Selected Language should be visible in the Field.</t>
-  </si>
-  <si>
-    <t>Verify Application Language Selection Drop Down Menu Dialog Search Field</t>
-  </si>
-  <si>
-    <t>Search for a Language Name Available in the Database</t>
-  </si>
-  <si>
-    <t>1. Languages with Similar Name are visible in the Drop Down Dialog</t>
-  </si>
-  <si>
-    <t>Search for a Language Name Not Available in the Database</t>
-  </si>
-  <si>
-    <t>1. Type the Language Name in the Search Bar</t>
-  </si>
-  <si>
-    <t>1. Type Something in the Search Bar</t>
-  </si>
-  <si>
-    <t>1. Shows the List of Language Similar to the Searched Name.</t>
-  </si>
-  <si>
-    <t>1. Show the Message 'No Result Found'</t>
-  </si>
-  <si>
-    <t>1. Message Shown and Other Language in the List should be Invisible</t>
-  </si>
-  <si>
-    <t>Verify Application Language Selection Drop Down Menu Dialog Search Field Cross Button</t>
-  </si>
-  <si>
-    <t>Delete all the Character Sequence by Clicking on the Cross Button in the Search Field</t>
-  </si>
-  <si>
-    <t>2. Click on Cross Icon</t>
-  </si>
-  <si>
-    <t>1. Whole Character Sequence in the Search Field should be Erased.</t>
-  </si>
-  <si>
-    <t>Leave the Name Field Empty</t>
-  </si>
-  <si>
-    <t>1. Drop Down Menu Should be Selected or Visible                         2. Search Box should be Focusable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.  Drop Down Menu Should be Selected or Visible                         2. Search Box should be Focusable                           </t>
-  </si>
-  <si>
-    <t>1. Name Field should be Visible and Focusable</t>
-  </si>
-  <si>
-    <t>1. Erase Everything if Avaliable in the Name Field</t>
-  </si>
-  <si>
-    <t>2. Click on Login or Any other Field</t>
-  </si>
-  <si>
-    <t>1. No Value is Present inside the Search Box</t>
-  </si>
-  <si>
-    <t>Leave the Password Field Empty</t>
-  </si>
-  <si>
-    <t>1. Password Field should be Visible and Focusable</t>
-  </si>
-  <si>
-    <t>1. Erase Everything if Avaliable in the Password Field</t>
-  </si>
-  <si>
-    <t>1. Show the Message 'Name Field is Required'                                       2. User Registration Failed</t>
-  </si>
-  <si>
-    <t>1. Message Shown      2. Registration Failed</t>
-  </si>
-  <si>
-    <t>1. Show the Message 'Password Field is Required'                            2. User Registration Failed</t>
-  </si>
-  <si>
-    <t>1. Email Field should be Visible and Focusable</t>
-  </si>
-  <si>
-    <t>1. Erase Everything if Avaliable in the Email Field</t>
-  </si>
-  <si>
-    <t>1. Show the Message 'Email Field is Required'                                       2. User Registration Failed</t>
-  </si>
-  <si>
-    <t>Input the Email in Invalid Format</t>
-  </si>
-  <si>
     <t>1. Enter an Email in Invalid Format</t>
-  </si>
-  <si>
-    <t>1. Show the Message 'Email must be a Valid Email'                                       2. User Registration Failed</t>
   </si>
   <si>
     <t>Verify Successful Registration</t>
   </si>
   <si>
-    <t>Enter a Valid Name, Email and Password</t>
-  </si>
-  <si>
-    <t>1. Name Field Should be Working Correctly                      2. Email Field Should be Working Correctly                     3. Passowrd Field Should be Working Correctly                     4. Sign Up Button Should be Working Correctly</t>
-  </si>
-  <si>
-    <t>1. Select Language If one wants</t>
-  </si>
-  <si>
-    <t>2. Enter a Name, Email and Password</t>
-  </si>
-  <si>
-    <t>3. Click on Sign Up Button</t>
-  </si>
-  <si>
-    <t>1. Message Shown       2. Registration Successful and Proceeded tothe Next Step.</t>
-  </si>
-  <si>
-    <t>1. Message Shown 'Registration Successful'                                    2. User Successfully Registered and Got Further Instructions to Proceed</t>
-  </si>
-  <si>
-    <t>Verify Unsuccessfull Registration due to Invalid Input Format</t>
-  </si>
-  <si>
-    <t>Verify Unsuccessfull Registration due to Empty Fields</t>
-  </si>
-  <si>
     <t>Verify Working of Log In Link</t>
-  </si>
-  <si>
-    <t>Clicking on Log In Link</t>
-  </si>
-  <si>
-    <t>1. Log In Link should be Visible and Clickable</t>
   </si>
   <si>
     <t>1. Click on Log In Link</t>
   </si>
   <si>
-    <t>Login Detils UI or Page is Visible</t>
-  </si>
-  <si>
-    <t>1. Opened Login Details UI or Directed to Login Page</t>
-  </si>
-  <si>
     <t>1. None</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>Leave Email Field Empty</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>Invalid Email</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>Valid Name, Email and Password</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Valid Language</t>
-    </r>
   </si>
   <si>
     <r>
@@ -372,6 +166,101 @@
   </si>
   <si>
     <t>1. Successfull Language Selection</t>
+  </si>
+  <si>
+    <t>Verify Unsuccessfull Registration</t>
+  </si>
+  <si>
+    <t>User Leaves Name Field Empty</t>
+  </si>
+  <si>
+    <t>User Enters Invalid Email</t>
+  </si>
+  <si>
+    <t>User Leaves Password Field Empty</t>
+  </si>
+  <si>
+    <t>User Clicks on Login Link</t>
+  </si>
+  <si>
+    <t>User Selects Different Languages from the Select your Application Language Drop Down Menu</t>
+  </si>
+  <si>
+    <t>2. Click on Sign Up Button or Any other Field</t>
+  </si>
+  <si>
+    <t>1. User is on the Registration Page</t>
+  </si>
+  <si>
+    <t>1. User is on the Validate Email Page</t>
+  </si>
+  <si>
+    <t>1. User is on the Login Page</t>
+  </si>
+  <si>
+    <t>1. Show the Error Message</t>
+  </si>
+  <si>
+    <t>1. Show the Required Error Message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Leaves Email Field Empty </t>
+  </si>
+  <si>
+    <t>1. Registration is Successful and the Required Message is Shown</t>
+  </si>
+  <si>
+    <t>1. Opens Login Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User is on the Registration Page </t>
+  </si>
+  <si>
+    <t>User Search for a Language Name, Available in the Database</t>
+  </si>
+  <si>
+    <t>User Search for a Language Name, Not Available in the Database</t>
+  </si>
+  <si>
+    <t>2. Search for the Language</t>
+  </si>
+  <si>
+    <t>3. Select the Language.</t>
+  </si>
+  <si>
+    <t>2. Click on Sign Up Button</t>
+  </si>
+  <si>
+    <t>1. Enter a Name, Email and Password</t>
+  </si>
+  <si>
+    <t>1. Erase Everything from the Name Field, if there is Something</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User Enters </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Valid Name, Email and Password</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Invalid Email</t>
+  </si>
+  <si>
+    <t>2. Valid Password</t>
+  </si>
+  <si>
+    <t>3. Valid Name</t>
+  </si>
+  <si>
+    <t>1. Valid Email</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +997,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1178,10 +1067,13 @@
     <xf numFmtId="0" fontId="20" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1228,6 +1120,12 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1672,10 +1570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K749"/>
+  <dimension ref="A1:K746"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1693,100 +1591,100 @@
   <sheetData>
     <row r="1" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="37"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30" t="s">
-        <v>29</v>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31" t="s">
+        <v>28</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="40"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="33" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="40"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="33" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="40"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="34">
+      <c r="C6" s="30"/>
+      <c r="D6" s="35">
         <v>45208</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="40"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="34">
+      <c r="C7" s="30"/>
+      <c r="D7" s="35">
         <v>45208</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="43"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="44"/>
     </row>
     <row r="9" spans="2:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
@@ -1825,131 +1723,135 @@
         <v>19</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="G10" s="13" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="J10" s="14"/>
-      <c r="K10" s="17"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
       <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="15"/>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="17"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="26"/>
       <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="16"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J13" s="14"/>
-      <c r="K13" s="17"/>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="17"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="26"/>
       <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="16"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
-      <c r="K15" s="17"/>
+      <c r="K15" s="16"/>
     </row>
     <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>39</v>
+      <c r="D16" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="E16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>43</v>
-      </c>
       <c r="I16" s="14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J16" s="14"/>
       <c r="K16" s="17"/>
@@ -1957,9 +1859,11 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B17" s="25"/>
       <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
@@ -1969,7 +1873,7 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B18" s="26"/>
       <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="16"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1978,41 +1882,42 @@
       <c r="J18" s="16"/>
       <c r="K18" s="17"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>48</v>
-      </c>
       <c r="I19" s="14" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="17"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
       <c r="B20" s="25"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="15"/>
       <c r="F20" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="15"/>
@@ -2021,9 +1926,10 @@
       <c r="K20" s="17"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
       <c r="B21" s="26"/>
       <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="16"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -2032,42 +1938,43 @@
       <c r="J21" s="16"/>
       <c r="K21" s="17"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
-      <c r="D22" s="28" t="s">
-        <v>49</v>
+      <c r="D22" s="27" t="s">
+        <v>43</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="J22" s="14"/>
       <c r="K22" s="17"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="25"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="15"/>
       <c r="F23" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="15"/>
@@ -2076,10 +1983,9 @@
       <c r="K23" s="17"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
       <c r="B24" s="26"/>
       <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="16"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -2088,43 +1994,41 @@
       <c r="J24" s="16"/>
       <c r="K24" s="17"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
+    <row r="25" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
-      <c r="D25" s="28" t="s">
-        <v>56</v>
+      <c r="D25" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="J25" s="14"/>
       <c r="K25" s="17"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
       <c r="B26" s="25"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="15"/>
       <c r="F26" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="15"/>
@@ -2135,7 +2039,7 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B27" s="26"/>
       <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="16"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -2144,30 +2048,30 @@
       <c r="J27" s="16"/>
       <c r="K27" s="17"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
-      <c r="D28" s="21" t="s">
-        <v>85</v>
+      <c r="D28" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>84</v>
+      <c r="G28" s="45" t="s">
+        <v>64</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="J28" s="14"/>
       <c r="K28" s="17"/>
@@ -2175,12 +2079,12 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B29" s="25"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="15"/>
-      <c r="F29" s="7" t="s">
-        <v>54</v>
+      <c r="F29" s="7"/>
+      <c r="G29" s="46" t="s">
+        <v>65</v>
       </c>
-      <c r="G29" s="7"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
@@ -2189,10 +2093,12 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B30" s="26"/>
       <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="16"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="G30" s="46" t="s">
+        <v>66</v>
+      </c>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
@@ -2203,25 +2109,25 @@
         <v>26</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
-      <c r="D31" s="28" t="s">
-        <v>65</v>
+      <c r="D31" s="27" t="s">
+        <v>63</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>86</v>
+      <c r="G31" s="46" t="s">
+        <v>67</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J31" s="14"/>
       <c r="K31" s="17"/>
@@ -2229,11 +2135,13 @@
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B32" s="25"/>
       <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="15"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7" t="s">
-        <v>87</v>
+      <c r="F32" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="46" t="s">
+        <v>65</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
@@ -2243,10 +2151,12 @@
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="26"/>
       <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
+      <c r="D33" s="29"/>
       <c r="E33" s="16"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="G33" s="46" t="s">
+        <v>66</v>
+      </c>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
@@ -2257,25 +2167,25 @@
         <v>27</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="J34" s="14"/>
       <c r="K34" s="17"/>
@@ -2283,14 +2193,10 @@
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="25"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="15"/>
-      <c r="F35" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>87</v>
-      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
@@ -2299,11 +2205,9 @@
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="26"/>
       <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="16"/>
-      <c r="F36" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
@@ -2311,52 +2215,36 @@
       <c r="K36" s="17"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>82</v>
-      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
       <c r="J37" s="14"/>
       <c r="K37" s="17"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="25"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="15"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+      <c r="G38" s="8"/>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
       <c r="K38" s="17"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="26"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
       <c r="E39" s="16"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="G39" s="6"/>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
@@ -2380,7 +2268,7 @@
       <c r="D41" s="22"/>
       <c r="E41" s="15"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="8"/>
+      <c r="G41" s="9"/>
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
@@ -2404,7 +2292,7 @@
       <c r="D43" s="21"/>
       <c r="E43" s="14"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="9"/>
+      <c r="G43" s="8"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
@@ -2416,7 +2304,7 @@
       <c r="D44" s="22"/>
       <c r="E44" s="15"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="9"/>
+      <c r="G44" s="8"/>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
       <c r="J44" s="15"/>
@@ -2452,7 +2340,7 @@
       <c r="D47" s="22"/>
       <c r="E47" s="15"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="8"/>
+      <c r="G47" s="9"/>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
@@ -2476,7 +2364,7 @@
       <c r="D49" s="21"/>
       <c r="E49" s="14"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="8"/>
+      <c r="G49" s="9"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
@@ -2488,7 +2376,7 @@
       <c r="D50" s="22"/>
       <c r="E50" s="15"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="9"/>
+      <c r="G50" s="8"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
@@ -2524,7 +2412,7 @@
       <c r="D53" s="22"/>
       <c r="E53" s="15"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="8"/>
+      <c r="G53" s="9"/>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
       <c r="J53" s="15"/>
@@ -2548,7 +2436,7 @@
       <c r="D55" s="21"/>
       <c r="E55" s="14"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="9"/>
+      <c r="G55" s="8"/>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
       <c r="J55" s="14"/>
@@ -2560,7 +2448,7 @@
       <c r="D56" s="22"/>
       <c r="E56" s="15"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="9"/>
+      <c r="G56" s="8"/>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
       <c r="J56" s="15"/>
@@ -2596,7 +2484,7 @@
       <c r="D59" s="22"/>
       <c r="E59" s="15"/>
       <c r="F59" s="7"/>
-      <c r="G59" s="8"/>
+      <c r="G59" s="9"/>
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
       <c r="J59" s="15"/>
@@ -2620,7 +2508,7 @@
       <c r="D61" s="21"/>
       <c r="E61" s="14"/>
       <c r="F61" s="7"/>
-      <c r="G61" s="8"/>
+      <c r="G61" s="9"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
@@ -2632,7 +2520,7 @@
       <c r="D62" s="22"/>
       <c r="E62" s="15"/>
       <c r="F62" s="7"/>
-      <c r="G62" s="9"/>
+      <c r="G62" s="8"/>
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
       <c r="J62" s="15"/>
@@ -2668,7 +2556,7 @@
       <c r="D65" s="22"/>
       <c r="E65" s="15"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="8"/>
+      <c r="G65" s="9"/>
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
       <c r="J65" s="15"/>
@@ -2692,7 +2580,7 @@
       <c r="D67" s="21"/>
       <c r="E67" s="14"/>
       <c r="F67" s="7"/>
-      <c r="G67" s="9"/>
+      <c r="G67" s="8"/>
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14"/>
@@ -2704,7 +2592,7 @@
       <c r="D68" s="22"/>
       <c r="E68" s="15"/>
       <c r="F68" s="7"/>
-      <c r="G68" s="9"/>
+      <c r="G68" s="8"/>
       <c r="H68" s="15"/>
       <c r="I68" s="15"/>
       <c r="J68" s="15"/>
@@ -2740,7 +2628,7 @@
       <c r="D71" s="22"/>
       <c r="E71" s="15"/>
       <c r="F71" s="7"/>
-      <c r="G71" s="8"/>
+      <c r="G71" s="9"/>
       <c r="H71" s="15"/>
       <c r="I71" s="15"/>
       <c r="J71" s="15"/>
@@ -2764,7 +2652,7 @@
       <c r="D73" s="21"/>
       <c r="E73" s="14"/>
       <c r="F73" s="7"/>
-      <c r="G73" s="8"/>
+      <c r="G73" s="9"/>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14"/>
@@ -2776,7 +2664,7 @@
       <c r="D74" s="22"/>
       <c r="E74" s="15"/>
       <c r="F74" s="7"/>
-      <c r="G74" s="9"/>
+      <c r="G74" s="8"/>
       <c r="H74" s="15"/>
       <c r="I74" s="15"/>
       <c r="J74" s="15"/>
@@ -2812,7 +2700,7 @@
       <c r="D77" s="22"/>
       <c r="E77" s="15"/>
       <c r="F77" s="7"/>
-      <c r="G77" s="8"/>
+      <c r="G77" s="9"/>
       <c r="H77" s="15"/>
       <c r="I77" s="15"/>
       <c r="J77" s="15"/>
@@ -2836,7 +2724,7 @@
       <c r="D79" s="21"/>
       <c r="E79" s="14"/>
       <c r="F79" s="7"/>
-      <c r="G79" s="9"/>
+      <c r="G79" s="8"/>
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
       <c r="J79" s="14"/>
@@ -2848,7 +2736,7 @@
       <c r="D80" s="22"/>
       <c r="E80" s="15"/>
       <c r="F80" s="7"/>
-      <c r="G80" s="9"/>
+      <c r="G80" s="8"/>
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
       <c r="J80" s="15"/>
@@ -2884,7 +2772,7 @@
       <c r="D83" s="22"/>
       <c r="E83" s="15"/>
       <c r="F83" s="7"/>
-      <c r="G83" s="8"/>
+      <c r="G83" s="9"/>
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
       <c r="J83" s="15"/>
@@ -2908,7 +2796,7 @@
       <c r="D85" s="21"/>
       <c r="E85" s="14"/>
       <c r="F85" s="7"/>
-      <c r="G85" s="8"/>
+      <c r="G85" s="9"/>
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="14"/>
@@ -2920,7 +2808,7 @@
       <c r="D86" s="22"/>
       <c r="E86" s="15"/>
       <c r="F86" s="7"/>
-      <c r="G86" s="9"/>
+      <c r="G86" s="8"/>
       <c r="H86" s="15"/>
       <c r="I86" s="15"/>
       <c r="J86" s="15"/>
@@ -2956,7 +2844,7 @@
       <c r="D89" s="22"/>
       <c r="E89" s="15"/>
       <c r="F89" s="7"/>
-      <c r="G89" s="8"/>
+      <c r="G89" s="9"/>
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
       <c r="J89" s="15"/>
@@ -2980,7 +2868,7 @@
       <c r="D91" s="21"/>
       <c r="E91" s="14"/>
       <c r="F91" s="7"/>
-      <c r="G91" s="9"/>
+      <c r="G91" s="8"/>
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14"/>
@@ -2992,7 +2880,7 @@
       <c r="D92" s="22"/>
       <c r="E92" s="15"/>
       <c r="F92" s="7"/>
-      <c r="G92" s="9"/>
+      <c r="G92" s="8"/>
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
       <c r="J92" s="15"/>
@@ -3028,7 +2916,7 @@
       <c r="D95" s="22"/>
       <c r="E95" s="15"/>
       <c r="F95" s="7"/>
-      <c r="G95" s="8"/>
+      <c r="G95" s="9"/>
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
       <c r="J95" s="15"/>
@@ -3052,7 +2940,7 @@
       <c r="D97" s="21"/>
       <c r="E97" s="14"/>
       <c r="F97" s="7"/>
-      <c r="G97" s="8"/>
+      <c r="G97" s="9"/>
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
       <c r="J97" s="14"/>
@@ -3064,7 +2952,7 @@
       <c r="D98" s="22"/>
       <c r="E98" s="15"/>
       <c r="F98" s="7"/>
-      <c r="G98" s="9"/>
+      <c r="G98" s="8"/>
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
       <c r="J98" s="15"/>
@@ -3100,7 +2988,7 @@
       <c r="D101" s="22"/>
       <c r="E101" s="15"/>
       <c r="F101" s="7"/>
-      <c r="G101" s="8"/>
+      <c r="G101" s="9"/>
       <c r="H101" s="15"/>
       <c r="I101" s="15"/>
       <c r="J101" s="15"/>
@@ -3124,7 +3012,7 @@
       <c r="D103" s="21"/>
       <c r="E103" s="14"/>
       <c r="F103" s="7"/>
-      <c r="G103" s="9"/>
+      <c r="G103" s="8"/>
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
       <c r="J103" s="14"/>
@@ -3136,7 +3024,7 @@
       <c r="D104" s="22"/>
       <c r="E104" s="15"/>
       <c r="F104" s="7"/>
-      <c r="G104" s="9"/>
+      <c r="G104" s="8"/>
       <c r="H104" s="15"/>
       <c r="I104" s="15"/>
       <c r="J104" s="15"/>
@@ -3172,7 +3060,7 @@
       <c r="D107" s="22"/>
       <c r="E107" s="15"/>
       <c r="F107" s="7"/>
-      <c r="G107" s="8"/>
+      <c r="G107" s="9"/>
       <c r="H107" s="15"/>
       <c r="I107" s="15"/>
       <c r="J107" s="15"/>
@@ -3196,7 +3084,7 @@
       <c r="D109" s="21"/>
       <c r="E109" s="14"/>
       <c r="F109" s="7"/>
-      <c r="G109" s="8"/>
+      <c r="G109" s="9"/>
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
       <c r="J109" s="14"/>
@@ -3208,7 +3096,7 @@
       <c r="D110" s="22"/>
       <c r="E110" s="15"/>
       <c r="F110" s="7"/>
-      <c r="G110" s="9"/>
+      <c r="G110" s="8"/>
       <c r="H110" s="15"/>
       <c r="I110" s="15"/>
       <c r="J110" s="15"/>
@@ -3244,7 +3132,7 @@
       <c r="D113" s="22"/>
       <c r="E113" s="15"/>
       <c r="F113" s="7"/>
-      <c r="G113" s="8"/>
+      <c r="G113" s="9"/>
       <c r="H113" s="15"/>
       <c r="I113" s="15"/>
       <c r="J113" s="15"/>
@@ -3268,7 +3156,7 @@
       <c r="D115" s="21"/>
       <c r="E115" s="14"/>
       <c r="F115" s="7"/>
-      <c r="G115" s="9"/>
+      <c r="G115" s="8"/>
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
       <c r="J115" s="14"/>
@@ -3280,7 +3168,7 @@
       <c r="D116" s="22"/>
       <c r="E116" s="15"/>
       <c r="F116" s="7"/>
-      <c r="G116" s="9"/>
+      <c r="G116" s="8"/>
       <c r="H116" s="15"/>
       <c r="I116" s="15"/>
       <c r="J116" s="15"/>
@@ -3316,7 +3204,7 @@
       <c r="D119" s="22"/>
       <c r="E119" s="15"/>
       <c r="F119" s="7"/>
-      <c r="G119" s="8"/>
+      <c r="G119" s="9"/>
       <c r="H119" s="15"/>
       <c r="I119" s="15"/>
       <c r="J119" s="15"/>
@@ -3340,7 +3228,7 @@
       <c r="D121" s="21"/>
       <c r="E121" s="14"/>
       <c r="F121" s="7"/>
-      <c r="G121" s="8"/>
+      <c r="G121" s="9"/>
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
       <c r="J121" s="14"/>
@@ -3352,7 +3240,7 @@
       <c r="D122" s="22"/>
       <c r="E122" s="15"/>
       <c r="F122" s="7"/>
-      <c r="G122" s="9"/>
+      <c r="G122" s="8"/>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
       <c r="J122" s="15"/>
@@ -3388,7 +3276,7 @@
       <c r="D125" s="22"/>
       <c r="E125" s="15"/>
       <c r="F125" s="7"/>
-      <c r="G125" s="8"/>
+      <c r="G125" s="9"/>
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
       <c r="J125" s="15"/>
@@ -3412,7 +3300,7 @@
       <c r="D127" s="21"/>
       <c r="E127" s="14"/>
       <c r="F127" s="7"/>
-      <c r="G127" s="9"/>
+      <c r="G127" s="8"/>
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
       <c r="J127" s="14"/>
@@ -3424,7 +3312,7 @@
       <c r="D128" s="22"/>
       <c r="E128" s="15"/>
       <c r="F128" s="7"/>
-      <c r="G128" s="9"/>
+      <c r="G128" s="8"/>
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
       <c r="J128" s="15"/>
@@ -3460,7 +3348,7 @@
       <c r="D131" s="22"/>
       <c r="E131" s="15"/>
       <c r="F131" s="7"/>
-      <c r="G131" s="8"/>
+      <c r="G131" s="9"/>
       <c r="H131" s="15"/>
       <c r="I131" s="15"/>
       <c r="J131" s="15"/>
@@ -3484,7 +3372,7 @@
       <c r="D133" s="21"/>
       <c r="E133" s="14"/>
       <c r="F133" s="7"/>
-      <c r="G133" s="8"/>
+      <c r="G133" s="9"/>
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
       <c r="J133" s="14"/>
@@ -3496,7 +3384,7 @@
       <c r="D134" s="22"/>
       <c r="E134" s="15"/>
       <c r="F134" s="7"/>
-      <c r="G134" s="9"/>
+      <c r="G134" s="8"/>
       <c r="H134" s="15"/>
       <c r="I134" s="15"/>
       <c r="J134" s="15"/>
@@ -3532,7 +3420,7 @@
       <c r="D137" s="22"/>
       <c r="E137" s="15"/>
       <c r="F137" s="7"/>
-      <c r="G137" s="8"/>
+      <c r="G137" s="9"/>
       <c r="H137" s="15"/>
       <c r="I137" s="15"/>
       <c r="J137" s="15"/>
@@ -3556,7 +3444,7 @@
       <c r="D139" s="21"/>
       <c r="E139" s="14"/>
       <c r="F139" s="7"/>
-      <c r="G139" s="9"/>
+      <c r="G139" s="8"/>
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
       <c r="J139" s="14"/>
@@ -3568,7 +3456,7 @@
       <c r="D140" s="22"/>
       <c r="E140" s="15"/>
       <c r="F140" s="7"/>
-      <c r="G140" s="9"/>
+      <c r="G140" s="8"/>
       <c r="H140" s="15"/>
       <c r="I140" s="15"/>
       <c r="J140" s="15"/>
@@ -3604,7 +3492,7 @@
       <c r="D143" s="22"/>
       <c r="E143" s="15"/>
       <c r="F143" s="7"/>
-      <c r="G143" s="8"/>
+      <c r="G143" s="9"/>
       <c r="H143" s="15"/>
       <c r="I143" s="15"/>
       <c r="J143" s="15"/>
@@ -3628,7 +3516,7 @@
       <c r="D145" s="21"/>
       <c r="E145" s="14"/>
       <c r="F145" s="7"/>
-      <c r="G145" s="8"/>
+      <c r="G145" s="9"/>
       <c r="H145" s="14"/>
       <c r="I145" s="14"/>
       <c r="J145" s="14"/>
@@ -3640,7 +3528,7 @@
       <c r="D146" s="22"/>
       <c r="E146" s="15"/>
       <c r="F146" s="7"/>
-      <c r="G146" s="9"/>
+      <c r="G146" s="8"/>
       <c r="H146" s="15"/>
       <c r="I146" s="15"/>
       <c r="J146" s="15"/>
@@ -3676,7 +3564,7 @@
       <c r="D149" s="22"/>
       <c r="E149" s="15"/>
       <c r="F149" s="7"/>
-      <c r="G149" s="8"/>
+      <c r="G149" s="9"/>
       <c r="H149" s="15"/>
       <c r="I149" s="15"/>
       <c r="J149" s="15"/>
@@ -3700,7 +3588,7 @@
       <c r="D151" s="21"/>
       <c r="E151" s="14"/>
       <c r="F151" s="7"/>
-      <c r="G151" s="9"/>
+      <c r="G151" s="8"/>
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
       <c r="J151" s="14"/>
@@ -3712,7 +3600,7 @@
       <c r="D152" s="22"/>
       <c r="E152" s="15"/>
       <c r="F152" s="7"/>
-      <c r="G152" s="9"/>
+      <c r="G152" s="8"/>
       <c r="H152" s="15"/>
       <c r="I152" s="15"/>
       <c r="J152" s="15"/>
@@ -3748,7 +3636,7 @@
       <c r="D155" s="22"/>
       <c r="E155" s="15"/>
       <c r="F155" s="7"/>
-      <c r="G155" s="8"/>
+      <c r="G155" s="9"/>
       <c r="H155" s="15"/>
       <c r="I155" s="15"/>
       <c r="J155" s="15"/>
@@ -3772,7 +3660,7 @@
       <c r="D157" s="21"/>
       <c r="E157" s="14"/>
       <c r="F157" s="7"/>
-      <c r="G157" s="8"/>
+      <c r="G157" s="9"/>
       <c r="H157" s="14"/>
       <c r="I157" s="14"/>
       <c r="J157" s="14"/>
@@ -3784,7 +3672,7 @@
       <c r="D158" s="22"/>
       <c r="E158" s="15"/>
       <c r="F158" s="7"/>
-      <c r="G158" s="9"/>
+      <c r="G158" s="8"/>
       <c r="H158" s="15"/>
       <c r="I158" s="15"/>
       <c r="J158" s="15"/>
@@ -3820,7 +3708,7 @@
       <c r="D161" s="22"/>
       <c r="E161" s="15"/>
       <c r="F161" s="7"/>
-      <c r="G161" s="8"/>
+      <c r="G161" s="9"/>
       <c r="H161" s="15"/>
       <c r="I161" s="15"/>
       <c r="J161" s="15"/>
@@ -3844,7 +3732,7 @@
       <c r="D163" s="21"/>
       <c r="E163" s="14"/>
       <c r="F163" s="7"/>
-      <c r="G163" s="9"/>
+      <c r="G163" s="8"/>
       <c r="H163" s="14"/>
       <c r="I163" s="14"/>
       <c r="J163" s="14"/>
@@ -3856,7 +3744,7 @@
       <c r="D164" s="22"/>
       <c r="E164" s="15"/>
       <c r="F164" s="7"/>
-      <c r="G164" s="9"/>
+      <c r="G164" s="8"/>
       <c r="H164" s="15"/>
       <c r="I164" s="15"/>
       <c r="J164" s="15"/>
@@ -3892,7 +3780,7 @@
       <c r="D167" s="22"/>
       <c r="E167" s="15"/>
       <c r="F167" s="7"/>
-      <c r="G167" s="8"/>
+      <c r="G167" s="9"/>
       <c r="H167" s="15"/>
       <c r="I167" s="15"/>
       <c r="J167" s="15"/>
@@ -3916,7 +3804,7 @@
       <c r="D169" s="21"/>
       <c r="E169" s="14"/>
       <c r="F169" s="7"/>
-      <c r="G169" s="8"/>
+      <c r="G169" s="9"/>
       <c r="H169" s="14"/>
       <c r="I169" s="14"/>
       <c r="J169" s="14"/>
@@ -3928,7 +3816,7 @@
       <c r="D170" s="22"/>
       <c r="E170" s="15"/>
       <c r="F170" s="7"/>
-      <c r="G170" s="9"/>
+      <c r="G170" s="8"/>
       <c r="H170" s="15"/>
       <c r="I170" s="15"/>
       <c r="J170" s="15"/>
@@ -3964,7 +3852,7 @@
       <c r="D173" s="22"/>
       <c r="E173" s="15"/>
       <c r="F173" s="7"/>
-      <c r="G173" s="8"/>
+      <c r="G173" s="9"/>
       <c r="H173" s="15"/>
       <c r="I173" s="15"/>
       <c r="J173" s="15"/>
@@ -3988,7 +3876,7 @@
       <c r="D175" s="21"/>
       <c r="E175" s="14"/>
       <c r="F175" s="7"/>
-      <c r="G175" s="9"/>
+      <c r="G175" s="8"/>
       <c r="H175" s="14"/>
       <c r="I175" s="14"/>
       <c r="J175" s="14"/>
@@ -4000,7 +3888,7 @@
       <c r="D176" s="22"/>
       <c r="E176" s="15"/>
       <c r="F176" s="7"/>
-      <c r="G176" s="9"/>
+      <c r="G176" s="8"/>
       <c r="H176" s="15"/>
       <c r="I176" s="15"/>
       <c r="J176" s="15"/>
@@ -4036,7 +3924,7 @@
       <c r="D179" s="22"/>
       <c r="E179" s="15"/>
       <c r="F179" s="7"/>
-      <c r="G179" s="8"/>
+      <c r="G179" s="9"/>
       <c r="H179" s="15"/>
       <c r="I179" s="15"/>
       <c r="J179" s="15"/>
@@ -4060,7 +3948,7 @@
       <c r="D181" s="21"/>
       <c r="E181" s="14"/>
       <c r="F181" s="7"/>
-      <c r="G181" s="8"/>
+      <c r="G181" s="9"/>
       <c r="H181" s="14"/>
       <c r="I181" s="14"/>
       <c r="J181" s="14"/>
@@ -4072,7 +3960,7 @@
       <c r="D182" s="22"/>
       <c r="E182" s="15"/>
       <c r="F182" s="7"/>
-      <c r="G182" s="9"/>
+      <c r="G182" s="8"/>
       <c r="H182" s="15"/>
       <c r="I182" s="15"/>
       <c r="J182" s="15"/>
@@ -4108,7 +3996,7 @@
       <c r="D185" s="22"/>
       <c r="E185" s="15"/>
       <c r="F185" s="7"/>
-      <c r="G185" s="8"/>
+      <c r="G185" s="9"/>
       <c r="H185" s="15"/>
       <c r="I185" s="15"/>
       <c r="J185" s="15"/>
@@ -4132,7 +4020,7 @@
       <c r="D187" s="21"/>
       <c r="E187" s="14"/>
       <c r="F187" s="7"/>
-      <c r="G187" s="9"/>
+      <c r="G187" s="8"/>
       <c r="H187" s="14"/>
       <c r="I187" s="14"/>
       <c r="J187" s="14"/>
@@ -4144,7 +4032,7 @@
       <c r="D188" s="22"/>
       <c r="E188" s="15"/>
       <c r="F188" s="7"/>
-      <c r="G188" s="9"/>
+      <c r="G188" s="8"/>
       <c r="H188" s="15"/>
       <c r="I188" s="15"/>
       <c r="J188" s="15"/>
@@ -4180,7 +4068,7 @@
       <c r="D191" s="22"/>
       <c r="E191" s="15"/>
       <c r="F191" s="7"/>
-      <c r="G191" s="8"/>
+      <c r="G191" s="9"/>
       <c r="H191" s="15"/>
       <c r="I191" s="15"/>
       <c r="J191" s="15"/>
@@ -4204,7 +4092,7 @@
       <c r="D193" s="21"/>
       <c r="E193" s="14"/>
       <c r="F193" s="7"/>
-      <c r="G193" s="8"/>
+      <c r="G193" s="9"/>
       <c r="H193" s="14"/>
       <c r="I193" s="14"/>
       <c r="J193" s="14"/>
@@ -4216,7 +4104,7 @@
       <c r="D194" s="22"/>
       <c r="E194" s="15"/>
       <c r="F194" s="7"/>
-      <c r="G194" s="9"/>
+      <c r="G194" s="8"/>
       <c r="H194" s="15"/>
       <c r="I194" s="15"/>
       <c r="J194" s="15"/>
@@ -4252,7 +4140,7 @@
       <c r="D197" s="22"/>
       <c r="E197" s="15"/>
       <c r="F197" s="7"/>
-      <c r="G197" s="8"/>
+      <c r="G197" s="9"/>
       <c r="H197" s="15"/>
       <c r="I197" s="15"/>
       <c r="J197" s="15"/>
@@ -4276,7 +4164,7 @@
       <c r="D199" s="21"/>
       <c r="E199" s="14"/>
       <c r="F199" s="7"/>
-      <c r="G199" s="9"/>
+      <c r="G199" s="8"/>
       <c r="H199" s="14"/>
       <c r="I199" s="14"/>
       <c r="J199" s="14"/>
@@ -4288,7 +4176,7 @@
       <c r="D200" s="22"/>
       <c r="E200" s="15"/>
       <c r="F200" s="7"/>
-      <c r="G200" s="9"/>
+      <c r="G200" s="8"/>
       <c r="H200" s="15"/>
       <c r="I200" s="15"/>
       <c r="J200" s="15"/>
@@ -4324,7 +4212,7 @@
       <c r="D203" s="22"/>
       <c r="E203" s="15"/>
       <c r="F203" s="7"/>
-      <c r="G203" s="8"/>
+      <c r="G203" s="9"/>
       <c r="H203" s="15"/>
       <c r="I203" s="15"/>
       <c r="J203" s="15"/>
@@ -4348,7 +4236,7 @@
       <c r="D205" s="21"/>
       <c r="E205" s="14"/>
       <c r="F205" s="7"/>
-      <c r="G205" s="8"/>
+      <c r="G205" s="9"/>
       <c r="H205" s="14"/>
       <c r="I205" s="14"/>
       <c r="J205" s="14"/>
@@ -4360,7 +4248,7 @@
       <c r="D206" s="22"/>
       <c r="E206" s="15"/>
       <c r="F206" s="7"/>
-      <c r="G206" s="9"/>
+      <c r="G206" s="8"/>
       <c r="H206" s="15"/>
       <c r="I206" s="15"/>
       <c r="J206" s="15"/>
@@ -4396,7 +4284,7 @@
       <c r="D209" s="22"/>
       <c r="E209" s="15"/>
       <c r="F209" s="7"/>
-      <c r="G209" s="8"/>
+      <c r="G209" s="9"/>
       <c r="H209" s="15"/>
       <c r="I209" s="15"/>
       <c r="J209" s="15"/>
@@ -4415,40 +4303,40 @@
       <c r="K210" s="17"/>
     </row>
     <row r="211" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B211" s="18"/>
-      <c r="C211" s="21"/>
-      <c r="D211" s="21"/>
-      <c r="E211" s="14"/>
-      <c r="F211" s="7"/>
-      <c r="G211" s="9"/>
-      <c r="H211" s="14"/>
-      <c r="I211" s="14"/>
-      <c r="J211" s="14"/>
-      <c r="K211" s="17"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+      <c r="J211" s="2"/>
+      <c r="K211" s="2"/>
     </row>
     <row r="212" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B212" s="19"/>
-      <c r="C212" s="22"/>
-      <c r="D212" s="22"/>
-      <c r="E212" s="15"/>
-      <c r="F212" s="7"/>
-      <c r="G212" s="9"/>
-      <c r="H212" s="15"/>
-      <c r="I212" s="15"/>
-      <c r="J212" s="15"/>
-      <c r="K212" s="17"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+      <c r="J212" s="2"/>
+      <c r="K212" s="2"/>
     </row>
     <row r="213" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B213" s="20"/>
-      <c r="C213" s="23"/>
-      <c r="D213" s="23"/>
-      <c r="E213" s="16"/>
-      <c r="F213" s="7"/>
-      <c r="G213" s="6"/>
-      <c r="H213" s="16"/>
-      <c r="I213" s="16"/>
-      <c r="J213" s="16"/>
-      <c r="K213" s="17"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+      <c r="J213" s="2"/>
+      <c r="K213" s="2"/>
     </row>
     <row r="214" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B214" s="2"/>
@@ -10846,65 +10734,21 @@
       <c r="J746" s="2"/>
       <c r="K746" s="2"/>
     </row>
-    <row r="747" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B747" s="2"/>
-      <c r="C747" s="2"/>
-      <c r="D747" s="2"/>
-      <c r="E747" s="2"/>
-      <c r="F747" s="2"/>
-      <c r="G747" s="2"/>
-      <c r="H747" s="2"/>
-      <c r="I747" s="2"/>
-      <c r="J747" s="2"/>
-      <c r="K747" s="2"/>
-    </row>
-    <row r="748" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B748" s="2"/>
-      <c r="C748" s="2"/>
-      <c r="D748" s="2"/>
-      <c r="E748" s="2"/>
-      <c r="F748" s="2"/>
-      <c r="G748" s="2"/>
-      <c r="H748" s="2"/>
-      <c r="I748" s="2"/>
-      <c r="J748" s="2"/>
-      <c r="K748" s="2"/>
-    </row>
-    <row r="749" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B749" s="2"/>
-      <c r="C749" s="2"/>
-      <c r="D749" s="2"/>
-      <c r="E749" s="2"/>
-      <c r="F749" s="2"/>
-      <c r="G749" s="2"/>
-      <c r="H749" s="2"/>
-      <c r="I749" s="2"/>
-      <c r="J749" s="2"/>
-      <c r="K749" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="557">
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:K21"/>
+  <mergeCells count="549">
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="I10:I12"/>
     <mergeCell ref="I13:I15"/>
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="J10:J12"/>
     <mergeCell ref="J13:J15"/>
     <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="H19:H21"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="B7:C7"/>
@@ -10929,518 +10773,518 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="H22:H24"/>
     <mergeCell ref="I22:I24"/>
     <mergeCell ref="J22:J24"/>
     <mergeCell ref="K22:K24"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="K28:K30"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="D25:D27"/>
     <mergeCell ref="E25:E27"/>
     <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="K34:K36"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="D31:D33"/>
     <mergeCell ref="E31:E33"/>
     <mergeCell ref="H31:H33"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="C37:C39"/>
     <mergeCell ref="D37:D39"/>
     <mergeCell ref="E37:E39"/>
     <mergeCell ref="H37:H39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="K46:K48"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="C43:C45"/>
     <mergeCell ref="D43:D45"/>
     <mergeCell ref="E43:E45"/>
     <mergeCell ref="H43:H45"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="K52:K54"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="C49:C51"/>
     <mergeCell ref="D49:D51"/>
     <mergeCell ref="E49:E51"/>
     <mergeCell ref="H49:H51"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="K58:K60"/>
     <mergeCell ref="B55:B57"/>
     <mergeCell ref="C55:C57"/>
     <mergeCell ref="D55:D57"/>
     <mergeCell ref="E55:E57"/>
     <mergeCell ref="H55:H57"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="K64:K66"/>
     <mergeCell ref="B61:B63"/>
     <mergeCell ref="C61:C63"/>
     <mergeCell ref="D61:D63"/>
     <mergeCell ref="E61:E63"/>
     <mergeCell ref="H61:H63"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="K70:K72"/>
     <mergeCell ref="B67:B69"/>
     <mergeCell ref="C67:C69"/>
     <mergeCell ref="D67:D69"/>
     <mergeCell ref="E67:E69"/>
     <mergeCell ref="H67:H69"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="H64:H66"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="H76:H78"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
     <mergeCell ref="B73:B75"/>
     <mergeCell ref="C73:C75"/>
     <mergeCell ref="D73:D75"/>
     <mergeCell ref="E73:E75"/>
     <mergeCell ref="H73:H75"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="H70:H72"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="K82:K84"/>
     <mergeCell ref="B79:B81"/>
     <mergeCell ref="C79:C81"/>
     <mergeCell ref="D79:D81"/>
     <mergeCell ref="E79:E81"/>
     <mergeCell ref="H79:H81"/>
-    <mergeCell ref="I79:I81"/>
-    <mergeCell ref="J79:J81"/>
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="H76:H78"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="H88:H90"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="K88:K90"/>
     <mergeCell ref="B85:B87"/>
     <mergeCell ref="C85:C87"/>
     <mergeCell ref="D85:D87"/>
     <mergeCell ref="E85:E87"/>
     <mergeCell ref="H85:H87"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="K85:K87"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="H82:H84"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="I91:I93"/>
+    <mergeCell ref="J91:J93"/>
+    <mergeCell ref="K91:K93"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="H94:H96"/>
+    <mergeCell ref="I94:I96"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="K94:K96"/>
     <mergeCell ref="B91:B93"/>
     <mergeCell ref="C91:C93"/>
     <mergeCell ref="D91:D93"/>
     <mergeCell ref="E91:E93"/>
     <mergeCell ref="H91:H93"/>
-    <mergeCell ref="I91:I93"/>
-    <mergeCell ref="J91:J93"/>
-    <mergeCell ref="K91:K93"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="H88:H90"/>
-    <mergeCell ref="I94:I96"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="K94:K96"/>
+    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="K97:K99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="I100:I102"/>
+    <mergeCell ref="J100:J102"/>
+    <mergeCell ref="K100:K102"/>
     <mergeCell ref="B97:B99"/>
     <mergeCell ref="C97:C99"/>
     <mergeCell ref="D97:D99"/>
     <mergeCell ref="E97:E99"/>
     <mergeCell ref="H97:H99"/>
-    <mergeCell ref="I97:I99"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="K97:K99"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="H94:H96"/>
-    <mergeCell ref="I100:I102"/>
-    <mergeCell ref="J100:J102"/>
-    <mergeCell ref="K100:K102"/>
+    <mergeCell ref="I103:I105"/>
+    <mergeCell ref="J103:J105"/>
+    <mergeCell ref="K103:K105"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="E106:E108"/>
+    <mergeCell ref="H106:H108"/>
+    <mergeCell ref="I106:I108"/>
+    <mergeCell ref="J106:J108"/>
+    <mergeCell ref="K106:K108"/>
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="C103:C105"/>
     <mergeCell ref="D103:D105"/>
     <mergeCell ref="E103:E105"/>
     <mergeCell ref="H103:H105"/>
-    <mergeCell ref="I103:I105"/>
-    <mergeCell ref="J103:J105"/>
-    <mergeCell ref="K103:K105"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="H100:H102"/>
-    <mergeCell ref="I106:I108"/>
-    <mergeCell ref="J106:J108"/>
-    <mergeCell ref="K106:K108"/>
+    <mergeCell ref="I109:I111"/>
+    <mergeCell ref="J109:J111"/>
+    <mergeCell ref="K109:K111"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="H112:H114"/>
+    <mergeCell ref="I112:I114"/>
+    <mergeCell ref="J112:J114"/>
+    <mergeCell ref="K112:K114"/>
     <mergeCell ref="B109:B111"/>
     <mergeCell ref="C109:C111"/>
     <mergeCell ref="D109:D111"/>
     <mergeCell ref="E109:E111"/>
     <mergeCell ref="H109:H111"/>
-    <mergeCell ref="I109:I111"/>
-    <mergeCell ref="J109:J111"/>
-    <mergeCell ref="K109:K111"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="E106:E108"/>
-    <mergeCell ref="H106:H108"/>
-    <mergeCell ref="I112:I114"/>
-    <mergeCell ref="J112:J114"/>
-    <mergeCell ref="K112:K114"/>
+    <mergeCell ref="I115:I117"/>
+    <mergeCell ref="J115:J117"/>
+    <mergeCell ref="K115:K117"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="H118:H120"/>
+    <mergeCell ref="I118:I120"/>
+    <mergeCell ref="J118:J120"/>
+    <mergeCell ref="K118:K120"/>
     <mergeCell ref="B115:B117"/>
     <mergeCell ref="C115:C117"/>
     <mergeCell ref="D115:D117"/>
     <mergeCell ref="E115:E117"/>
     <mergeCell ref="H115:H117"/>
-    <mergeCell ref="I115:I117"/>
-    <mergeCell ref="J115:J117"/>
-    <mergeCell ref="K115:K117"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="C112:C114"/>
-    <mergeCell ref="D112:D114"/>
-    <mergeCell ref="E112:E114"/>
-    <mergeCell ref="H112:H114"/>
-    <mergeCell ref="I118:I120"/>
-    <mergeCell ref="J118:J120"/>
-    <mergeCell ref="K118:K120"/>
+    <mergeCell ref="I121:I123"/>
+    <mergeCell ref="J121:J123"/>
+    <mergeCell ref="K121:K123"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="D124:D126"/>
+    <mergeCell ref="E124:E126"/>
+    <mergeCell ref="H124:H126"/>
+    <mergeCell ref="I124:I126"/>
+    <mergeCell ref="J124:J126"/>
+    <mergeCell ref="K124:K126"/>
     <mergeCell ref="B121:B123"/>
     <mergeCell ref="C121:C123"/>
     <mergeCell ref="D121:D123"/>
     <mergeCell ref="E121:E123"/>
     <mergeCell ref="H121:H123"/>
-    <mergeCell ref="I121:I123"/>
-    <mergeCell ref="J121:J123"/>
-    <mergeCell ref="K121:K123"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="D118:D120"/>
-    <mergeCell ref="E118:E120"/>
-    <mergeCell ref="H118:H120"/>
-    <mergeCell ref="I124:I126"/>
-    <mergeCell ref="J124:J126"/>
-    <mergeCell ref="K124:K126"/>
+    <mergeCell ref="I127:I129"/>
+    <mergeCell ref="J127:J129"/>
+    <mergeCell ref="K127:K129"/>
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="D130:D132"/>
+    <mergeCell ref="E130:E132"/>
+    <mergeCell ref="H130:H132"/>
+    <mergeCell ref="I130:I132"/>
+    <mergeCell ref="J130:J132"/>
+    <mergeCell ref="K130:K132"/>
     <mergeCell ref="B127:B129"/>
     <mergeCell ref="C127:C129"/>
     <mergeCell ref="D127:D129"/>
     <mergeCell ref="E127:E129"/>
     <mergeCell ref="H127:H129"/>
-    <mergeCell ref="I127:I129"/>
-    <mergeCell ref="J127:J129"/>
-    <mergeCell ref="K127:K129"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="C124:C126"/>
-    <mergeCell ref="D124:D126"/>
-    <mergeCell ref="E124:E126"/>
-    <mergeCell ref="H124:H126"/>
-    <mergeCell ref="I130:I132"/>
-    <mergeCell ref="J130:J132"/>
-    <mergeCell ref="K130:K132"/>
+    <mergeCell ref="I133:I135"/>
+    <mergeCell ref="J133:J135"/>
+    <mergeCell ref="K133:K135"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="D136:D138"/>
+    <mergeCell ref="E136:E138"/>
+    <mergeCell ref="H136:H138"/>
+    <mergeCell ref="I136:I138"/>
+    <mergeCell ref="J136:J138"/>
+    <mergeCell ref="K136:K138"/>
     <mergeCell ref="B133:B135"/>
     <mergeCell ref="C133:C135"/>
     <mergeCell ref="D133:D135"/>
     <mergeCell ref="E133:E135"/>
     <mergeCell ref="H133:H135"/>
-    <mergeCell ref="I133:I135"/>
-    <mergeCell ref="J133:J135"/>
-    <mergeCell ref="K133:K135"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="D130:D132"/>
-    <mergeCell ref="E130:E132"/>
-    <mergeCell ref="H130:H132"/>
-    <mergeCell ref="I136:I138"/>
-    <mergeCell ref="J136:J138"/>
-    <mergeCell ref="K136:K138"/>
+    <mergeCell ref="I139:I141"/>
+    <mergeCell ref="J139:J141"/>
+    <mergeCell ref="K139:K141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="D142:D144"/>
+    <mergeCell ref="E142:E144"/>
+    <mergeCell ref="H142:H144"/>
+    <mergeCell ref="I142:I144"/>
+    <mergeCell ref="J142:J144"/>
+    <mergeCell ref="K142:K144"/>
     <mergeCell ref="B139:B141"/>
     <mergeCell ref="C139:C141"/>
     <mergeCell ref="D139:D141"/>
     <mergeCell ref="E139:E141"/>
     <mergeCell ref="H139:H141"/>
-    <mergeCell ref="I139:I141"/>
-    <mergeCell ref="J139:J141"/>
-    <mergeCell ref="K139:K141"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="C136:C138"/>
-    <mergeCell ref="D136:D138"/>
-    <mergeCell ref="E136:E138"/>
-    <mergeCell ref="H136:H138"/>
-    <mergeCell ref="I142:I144"/>
-    <mergeCell ref="J142:J144"/>
-    <mergeCell ref="K142:K144"/>
+    <mergeCell ref="I145:I147"/>
+    <mergeCell ref="J145:J147"/>
+    <mergeCell ref="K145:K147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="D148:D150"/>
+    <mergeCell ref="E148:E150"/>
+    <mergeCell ref="H148:H150"/>
+    <mergeCell ref="I148:I150"/>
+    <mergeCell ref="J148:J150"/>
+    <mergeCell ref="K148:K150"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="C145:C147"/>
     <mergeCell ref="D145:D147"/>
     <mergeCell ref="E145:E147"/>
     <mergeCell ref="H145:H147"/>
-    <mergeCell ref="I145:I147"/>
-    <mergeCell ref="J145:J147"/>
-    <mergeCell ref="K145:K147"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="C142:C144"/>
-    <mergeCell ref="D142:D144"/>
-    <mergeCell ref="E142:E144"/>
-    <mergeCell ref="H142:H144"/>
-    <mergeCell ref="I148:I150"/>
-    <mergeCell ref="J148:J150"/>
-    <mergeCell ref="K148:K150"/>
+    <mergeCell ref="I151:I153"/>
+    <mergeCell ref="J151:J153"/>
+    <mergeCell ref="K151:K153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="D154:D156"/>
+    <mergeCell ref="E154:E156"/>
+    <mergeCell ref="H154:H156"/>
+    <mergeCell ref="I154:I156"/>
+    <mergeCell ref="J154:J156"/>
+    <mergeCell ref="K154:K156"/>
     <mergeCell ref="B151:B153"/>
     <mergeCell ref="C151:C153"/>
     <mergeCell ref="D151:D153"/>
     <mergeCell ref="E151:E153"/>
     <mergeCell ref="H151:H153"/>
-    <mergeCell ref="I151:I153"/>
-    <mergeCell ref="J151:J153"/>
-    <mergeCell ref="K151:K153"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="D148:D150"/>
-    <mergeCell ref="E148:E150"/>
-    <mergeCell ref="H148:H150"/>
-    <mergeCell ref="I154:I156"/>
-    <mergeCell ref="J154:J156"/>
-    <mergeCell ref="K154:K156"/>
+    <mergeCell ref="I157:I159"/>
+    <mergeCell ref="J157:J159"/>
+    <mergeCell ref="K157:K159"/>
+    <mergeCell ref="B160:B162"/>
+    <mergeCell ref="C160:C162"/>
+    <mergeCell ref="D160:D162"/>
+    <mergeCell ref="E160:E162"/>
+    <mergeCell ref="H160:H162"/>
+    <mergeCell ref="I160:I162"/>
+    <mergeCell ref="J160:J162"/>
+    <mergeCell ref="K160:K162"/>
     <mergeCell ref="B157:B159"/>
     <mergeCell ref="C157:C159"/>
     <mergeCell ref="D157:D159"/>
     <mergeCell ref="E157:E159"/>
     <mergeCell ref="H157:H159"/>
-    <mergeCell ref="I157:I159"/>
-    <mergeCell ref="J157:J159"/>
-    <mergeCell ref="K157:K159"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="D154:D156"/>
-    <mergeCell ref="E154:E156"/>
-    <mergeCell ref="H154:H156"/>
-    <mergeCell ref="I160:I162"/>
-    <mergeCell ref="J160:J162"/>
-    <mergeCell ref="K160:K162"/>
+    <mergeCell ref="I163:I165"/>
+    <mergeCell ref="J163:J165"/>
+    <mergeCell ref="K163:K165"/>
+    <mergeCell ref="B166:B168"/>
+    <mergeCell ref="C166:C168"/>
+    <mergeCell ref="D166:D168"/>
+    <mergeCell ref="E166:E168"/>
+    <mergeCell ref="H166:H168"/>
+    <mergeCell ref="I166:I168"/>
+    <mergeCell ref="J166:J168"/>
+    <mergeCell ref="K166:K168"/>
     <mergeCell ref="B163:B165"/>
     <mergeCell ref="C163:C165"/>
     <mergeCell ref="D163:D165"/>
     <mergeCell ref="E163:E165"/>
     <mergeCell ref="H163:H165"/>
-    <mergeCell ref="I163:I165"/>
-    <mergeCell ref="J163:J165"/>
-    <mergeCell ref="K163:K165"/>
-    <mergeCell ref="B160:B162"/>
-    <mergeCell ref="C160:C162"/>
-    <mergeCell ref="D160:D162"/>
-    <mergeCell ref="E160:E162"/>
-    <mergeCell ref="H160:H162"/>
-    <mergeCell ref="I166:I168"/>
-    <mergeCell ref="J166:J168"/>
-    <mergeCell ref="K166:K168"/>
+    <mergeCell ref="I169:I171"/>
+    <mergeCell ref="J169:J171"/>
+    <mergeCell ref="K169:K171"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="C172:C174"/>
+    <mergeCell ref="D172:D174"/>
+    <mergeCell ref="E172:E174"/>
+    <mergeCell ref="H172:H174"/>
+    <mergeCell ref="I172:I174"/>
+    <mergeCell ref="J172:J174"/>
+    <mergeCell ref="K172:K174"/>
     <mergeCell ref="B169:B171"/>
     <mergeCell ref="C169:C171"/>
     <mergeCell ref="D169:D171"/>
     <mergeCell ref="E169:E171"/>
     <mergeCell ref="H169:H171"/>
-    <mergeCell ref="I169:I171"/>
-    <mergeCell ref="J169:J171"/>
-    <mergeCell ref="K169:K171"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="C166:C168"/>
-    <mergeCell ref="D166:D168"/>
-    <mergeCell ref="E166:E168"/>
-    <mergeCell ref="H166:H168"/>
-    <mergeCell ref="I172:I174"/>
-    <mergeCell ref="J172:J174"/>
-    <mergeCell ref="K172:K174"/>
+    <mergeCell ref="I175:I177"/>
+    <mergeCell ref="J175:J177"/>
+    <mergeCell ref="K175:K177"/>
+    <mergeCell ref="B178:B180"/>
+    <mergeCell ref="C178:C180"/>
+    <mergeCell ref="D178:D180"/>
+    <mergeCell ref="E178:E180"/>
+    <mergeCell ref="H178:H180"/>
+    <mergeCell ref="I178:I180"/>
+    <mergeCell ref="J178:J180"/>
+    <mergeCell ref="K178:K180"/>
     <mergeCell ref="B175:B177"/>
     <mergeCell ref="C175:C177"/>
     <mergeCell ref="D175:D177"/>
     <mergeCell ref="E175:E177"/>
     <mergeCell ref="H175:H177"/>
-    <mergeCell ref="I175:I177"/>
-    <mergeCell ref="J175:J177"/>
-    <mergeCell ref="K175:K177"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="C172:C174"/>
-    <mergeCell ref="D172:D174"/>
-    <mergeCell ref="E172:E174"/>
-    <mergeCell ref="H172:H174"/>
-    <mergeCell ref="I178:I180"/>
-    <mergeCell ref="J178:J180"/>
-    <mergeCell ref="K178:K180"/>
+    <mergeCell ref="I181:I183"/>
+    <mergeCell ref="J181:J183"/>
+    <mergeCell ref="K181:K183"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="C184:C186"/>
+    <mergeCell ref="D184:D186"/>
+    <mergeCell ref="E184:E186"/>
+    <mergeCell ref="H184:H186"/>
+    <mergeCell ref="I184:I186"/>
+    <mergeCell ref="J184:J186"/>
+    <mergeCell ref="K184:K186"/>
     <mergeCell ref="B181:B183"/>
     <mergeCell ref="C181:C183"/>
     <mergeCell ref="D181:D183"/>
     <mergeCell ref="E181:E183"/>
     <mergeCell ref="H181:H183"/>
-    <mergeCell ref="I181:I183"/>
-    <mergeCell ref="J181:J183"/>
-    <mergeCell ref="K181:K183"/>
-    <mergeCell ref="B178:B180"/>
-    <mergeCell ref="C178:C180"/>
-    <mergeCell ref="D178:D180"/>
-    <mergeCell ref="E178:E180"/>
-    <mergeCell ref="H178:H180"/>
-    <mergeCell ref="I184:I186"/>
-    <mergeCell ref="J184:J186"/>
-    <mergeCell ref="K184:K186"/>
+    <mergeCell ref="I187:I189"/>
+    <mergeCell ref="J187:J189"/>
+    <mergeCell ref="K187:K189"/>
+    <mergeCell ref="B190:B192"/>
+    <mergeCell ref="C190:C192"/>
+    <mergeCell ref="D190:D192"/>
+    <mergeCell ref="E190:E192"/>
+    <mergeCell ref="H190:H192"/>
+    <mergeCell ref="I190:I192"/>
+    <mergeCell ref="J190:J192"/>
+    <mergeCell ref="K190:K192"/>
     <mergeCell ref="B187:B189"/>
     <mergeCell ref="C187:C189"/>
     <mergeCell ref="D187:D189"/>
     <mergeCell ref="E187:E189"/>
     <mergeCell ref="H187:H189"/>
-    <mergeCell ref="I187:I189"/>
-    <mergeCell ref="J187:J189"/>
-    <mergeCell ref="K187:K189"/>
-    <mergeCell ref="B184:B186"/>
-    <mergeCell ref="C184:C186"/>
-    <mergeCell ref="D184:D186"/>
-    <mergeCell ref="E184:E186"/>
-    <mergeCell ref="H184:H186"/>
-    <mergeCell ref="I190:I192"/>
-    <mergeCell ref="J190:J192"/>
-    <mergeCell ref="K190:K192"/>
+    <mergeCell ref="I193:I195"/>
+    <mergeCell ref="J193:J195"/>
+    <mergeCell ref="K193:K195"/>
+    <mergeCell ref="B196:B198"/>
+    <mergeCell ref="C196:C198"/>
+    <mergeCell ref="D196:D198"/>
+    <mergeCell ref="E196:E198"/>
+    <mergeCell ref="H196:H198"/>
+    <mergeCell ref="I196:I198"/>
+    <mergeCell ref="J196:J198"/>
+    <mergeCell ref="K196:K198"/>
     <mergeCell ref="B193:B195"/>
     <mergeCell ref="C193:C195"/>
     <mergeCell ref="D193:D195"/>
     <mergeCell ref="E193:E195"/>
     <mergeCell ref="H193:H195"/>
-    <mergeCell ref="I193:I195"/>
-    <mergeCell ref="J193:J195"/>
-    <mergeCell ref="K193:K195"/>
-    <mergeCell ref="B190:B192"/>
-    <mergeCell ref="C190:C192"/>
-    <mergeCell ref="D190:D192"/>
-    <mergeCell ref="E190:E192"/>
-    <mergeCell ref="H190:H192"/>
-    <mergeCell ref="I196:I198"/>
-    <mergeCell ref="J196:J198"/>
-    <mergeCell ref="K196:K198"/>
+    <mergeCell ref="I199:I201"/>
+    <mergeCell ref="J199:J201"/>
+    <mergeCell ref="K199:K201"/>
+    <mergeCell ref="B202:B204"/>
+    <mergeCell ref="C202:C204"/>
+    <mergeCell ref="D202:D204"/>
+    <mergeCell ref="E202:E204"/>
+    <mergeCell ref="H202:H204"/>
+    <mergeCell ref="I202:I204"/>
+    <mergeCell ref="J202:J204"/>
+    <mergeCell ref="K202:K204"/>
     <mergeCell ref="B199:B201"/>
     <mergeCell ref="C199:C201"/>
     <mergeCell ref="D199:D201"/>
     <mergeCell ref="E199:E201"/>
     <mergeCell ref="H199:H201"/>
-    <mergeCell ref="I199:I201"/>
-    <mergeCell ref="J199:J201"/>
-    <mergeCell ref="K199:K201"/>
-    <mergeCell ref="B196:B198"/>
-    <mergeCell ref="C196:C198"/>
-    <mergeCell ref="D196:D198"/>
-    <mergeCell ref="E196:E198"/>
-    <mergeCell ref="H196:H198"/>
-    <mergeCell ref="I202:I204"/>
-    <mergeCell ref="J202:J204"/>
-    <mergeCell ref="K202:K204"/>
+    <mergeCell ref="I205:I207"/>
+    <mergeCell ref="J205:J207"/>
+    <mergeCell ref="K205:K207"/>
+    <mergeCell ref="B208:B210"/>
+    <mergeCell ref="C208:C210"/>
+    <mergeCell ref="D208:D210"/>
+    <mergeCell ref="E208:E210"/>
+    <mergeCell ref="H208:H210"/>
+    <mergeCell ref="I208:I210"/>
+    <mergeCell ref="J208:J210"/>
+    <mergeCell ref="K208:K210"/>
     <mergeCell ref="B205:B207"/>
     <mergeCell ref="C205:C207"/>
     <mergeCell ref="D205:D207"/>
     <mergeCell ref="E205:E207"/>
     <mergeCell ref="H205:H207"/>
-    <mergeCell ref="I205:I207"/>
-    <mergeCell ref="J205:J207"/>
-    <mergeCell ref="K205:K207"/>
-    <mergeCell ref="B202:B204"/>
-    <mergeCell ref="C202:C204"/>
-    <mergeCell ref="D202:D204"/>
-    <mergeCell ref="E202:E204"/>
-    <mergeCell ref="H202:H204"/>
-    <mergeCell ref="I208:I210"/>
-    <mergeCell ref="J208:J210"/>
-    <mergeCell ref="K208:K210"/>
-    <mergeCell ref="B211:B213"/>
-    <mergeCell ref="C211:C213"/>
-    <mergeCell ref="D211:D213"/>
-    <mergeCell ref="E211:E213"/>
-    <mergeCell ref="H211:H213"/>
-    <mergeCell ref="I211:I213"/>
-    <mergeCell ref="J211:J213"/>
-    <mergeCell ref="K211:K213"/>
-    <mergeCell ref="B208:B210"/>
-    <mergeCell ref="C208:C210"/>
-    <mergeCell ref="D208:D210"/>
-    <mergeCell ref="E208:E210"/>
-    <mergeCell ref="H208:H210"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
